--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/빈셀찾아0으로교체(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/빈셀찾아0으로교체(준비).xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section02\02_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B53E5435-C82E-4A3D-ACE1-926964AA7A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81044186-6838-CD47-B800-2E28F5D97553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{E9F534F9-422B-461C-B650-FA88600C77D7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E9F534F9-422B-461C-B650-FA88600C77D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -154,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,22 +275,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,623 +611,647 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F31A9C-6108-443F-AE3C-F173367E466F}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:8" ht="10.5" customHeight="1"/>
+    <row r="2" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>80</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>100</v>
       </c>
-      <c r="H5" s="4">
-        <f>AVERAGE(E5:G5)</f>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H26" si="0">AVERAGE(E5:G5)</f>
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>88</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>90</v>
       </c>
-      <c r="H6" s="4">
-        <f>AVERAGE(E6:G6)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>59.333333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>78</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>85</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>79</v>
       </c>
-      <c r="H7" s="4">
-        <f>AVERAGE(E7:G7)</f>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>80.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>75</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>80</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>69</v>
       </c>
-      <c r="H8" s="4">
-        <f>AVERAGE(E8:G8)</f>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
         <v>74.666666666666671</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="e">
-        <f>AVERAGE(E9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>80</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>90</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>61</v>
       </c>
-      <c r="H10" s="4">
-        <f>AVERAGE(E10:G10)</f>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>83</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>72</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>92</v>
       </c>
-      <c r="H11" s="4">
-        <f>AVERAGE(E11:G11)</f>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
         <v>82.333333333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>75</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>50</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>70</v>
       </c>
-      <c r="H12" s="4">
-        <f>AVERAGE(E12:G12)</f>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>85</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>94</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4">
-        <f>AVERAGE(E13:G13)</f>
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>59.666666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>93</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>61</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>50</v>
       </c>
-      <c r="H14" s="4">
-        <f>AVERAGE(E14:G14)</f>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>95</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>75</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>95</v>
       </c>
-      <c r="H15" s="4">
-        <f>AVERAGE(E15:G15)</f>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>83</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>85</v>
       </c>
-      <c r="H16" s="4">
-        <f>AVERAGE(E16:G16)</f>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <v>73</v>
+      </c>
+      <c r="F17" s="5">
+        <v>80</v>
+      </c>
+      <c r="G17" s="5">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>75.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5">
+        <v>75</v>
+      </c>
+      <c r="G18" s="5">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5">
+        <v>70</v>
+      </c>
+      <c r="F20" s="5">
+        <v>80</v>
+      </c>
+      <c r="G20" s="5">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5">
+        <v>73</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>82</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>51.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5">
+        <v>65</v>
+      </c>
+      <c r="F22" s="5">
+        <v>40</v>
+      </c>
+      <c r="G22" s="5">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5">
+        <v>75</v>
+      </c>
+      <c r="F23" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5">
+        <v>83</v>
+      </c>
+      <c r="F24" s="5">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5">
+        <v>83</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>92</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="6">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6">
-        <v>80</v>
-      </c>
-      <c r="G17" s="6">
-        <v>74</v>
-      </c>
-      <c r="H17" s="4">
-        <f>AVERAGE(E17:G17)</f>
-        <v>75.666666666666671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="E26" s="5">
+        <v>75</v>
+      </c>
+      <c r="F26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5">
         <v>70</v>
       </c>
-      <c r="F18" s="6">
-        <v>75</v>
-      </c>
-      <c r="G18" s="6">
-        <v>64</v>
-      </c>
-      <c r="H18" s="4">
-        <f>AVERAGE(E18:G18)</f>
-        <v>69.666666666666671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4" t="e">
-        <f>AVERAGE(E19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6">
-        <v>70</v>
-      </c>
-      <c r="F20" s="6">
-        <v>80</v>
-      </c>
-      <c r="G20" s="6">
-        <v>51</v>
-      </c>
-      <c r="H20" s="4">
-        <f>AVERAGE(E20:G20)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6">
-        <v>73</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>82</v>
-      </c>
-      <c r="H21" s="4">
-        <f>AVERAGE(E21:G21)</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6">
-        <v>65</v>
-      </c>
-      <c r="F22" s="6">
-        <v>40</v>
-      </c>
-      <c r="G22" s="6">
-        <v>60</v>
-      </c>
-      <c r="H22" s="4">
-        <f>AVERAGE(E22:G22)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="6">
-        <v>75</v>
-      </c>
-      <c r="F23" s="6">
-        <v>84</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4">
-        <f>AVERAGE(E23:G23)</f>
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="6">
-        <v>83</v>
-      </c>
-      <c r="F24" s="6">
-        <v>51</v>
-      </c>
-      <c r="G24" s="6">
-        <v>40</v>
-      </c>
-      <c r="H24" s="4">
-        <f>AVERAGE(E24:G24)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="6">
-        <v>83</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <v>92</v>
-      </c>
-      <c r="H25" s="4">
-        <f>AVERAGE(E25:G25)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="6">
-        <v>75</v>
-      </c>
-      <c r="F26" s="6">
-        <v>50</v>
-      </c>
-      <c r="G26" s="6">
-        <v>70</v>
-      </c>
-      <c r="H26" s="4">
-        <f>AVERAGE(E26:G26)</f>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
